--- a/biology/Écologie/Richesse_spécifique/Richesse_spécifique.xlsx
+++ b/biology/Écologie/Richesse_spécifique/Richesse_spécifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Richesse_sp%C3%A9cifique</t>
+          <t>Richesse_spécifique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La richesse spécifique, ou diversité alpha,  est une mesure de la biodiversité de tout ou partie d'un écosystème ; elle désigne le nombre d'espèces présentes dans un milieu donné[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La richesse spécifique, ou diversité alpha,  est une mesure de la biodiversité de tout ou partie d'un écosystème ; elle désigne le nombre d'espèces présentes dans un milieu donné.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Richesse_sp%C3%A9cifique</t>
+          <t>Richesse_spécifique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biodiversité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Désigne la variété et la variabilité (prend en compte tous les niveaux taxonomiques du règne à la sous-espèce ou à la race) parmi les diverses formes de vie et dans les complexes écologiques dans lesquels elles se rencontrent. Cependant, la biodiversité est aussi définie comme la variabilité des êtres vivants, dans leurs relations avec le milieu où ils vivent.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Richesse_sp%C3%A9cifique</t>
+          <t>Richesse_spécifique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Exemple de richesse spécifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une richesse spécifique peut s'exprimer en richesse totale ou en richesse moyenne :
 la richesse totale correspond au nombre total d'espèces présentes dans un biotope ou une station donnée ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Richesse_sp%C3%A9cifique</t>
+          <t>Richesse_spécifique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Mesures découlant de la richesse spécifique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La diversité alpha, qui correspond au nombre d'espèces coexistant dans un milieu donné.
 La diversité bêta, qui correspond au taux de remplacement des espèces le long d'un gradient (par exemple climatique, spatial, d'altitude), au sein d'une région donnée. Ce taux de remplacement peut être calculé de deux façons :
